--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d142251-Reviews-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Econo-Lodge-Anaheim-North.h126566.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,516 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r522957562-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>142251</t>
+  </si>
+  <si>
+    <t>522957562</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Wasn't expecting a few problems, but otherwise not bad</t>
+  </si>
+  <si>
+    <t>It would have been nice if the refrigerator in the room worked, although the microwave definitely did.  Besides the killer-hot coffee, breakfast wasn't all that great and didn't even open on time each of the three days I stayed.But at least the staff seemed to care what they were doing. No one's fault, but the place is hard to find in that La Palma Avenue, in the 8600 block, suddenly becomes West La Palma, 2600!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>It would have been nice if the refrigerator in the room worked, although the microwave definitely did.  Besides the killer-hot coffee, breakfast wasn't all that great and didn't even open on time each of the three days I stayed.But at least the staff seemed to care what they were doing. No one's fault, but the place is hard to find in that La Palma Avenue, in the 8600 block, suddenly becomes West La Palma, 2600!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r511381272-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>511381272</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average stay </t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights when in Anaheim on business. I was pleasantly surprised with the cleanliness of the room. The old appearance of the outside doesn’t give much hope but the room itself was clean and maintained. The bed was reasonably comfortable but the pillows were difficult to relax with. The breakfast was almost non existent. A few donuts, and bread for making toast. Very basic. Not bad for families on a budget but don’t expect much more than a clean room. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, webmaster at Econo Lodge Anaheim North, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights when in Anaheim on business. I was pleasantly surprised with the cleanliness of the room. The old appearance of the outside doesn’t give much hope but the room itself was clean and maintained. The bed was reasonably comfortable but the pillows were difficult to relax with. The breakfast was almost non existent. A few donuts, and bread for making toast. Very basic. Not bad for families on a budget but don’t expect much more than a clean room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r488954313-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>488954313</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend getaway </t>
+  </si>
+  <si>
+    <t>We stayed at this motel for the first time and in a non-smoking room. The room was clean, it had a microwave and refrigerator so that is a plus. The breakfast consisted of donuts, toast, juice and like an instant coffee machine. I would prefer had some cereal and milk. The beds were very comfortable.  The hotel was close to Knotts Berry Farm, Independence Hall (historic) and other attractions, so was nice to see how beautiful things Buena Park has.   I would recommend this hotel for a tight budget, or if you are looking for a room for a quick stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for the first time and in a non-smoking room. The room was clean, it had a microwave and refrigerator so that is a plus. The breakfast consisted of donuts, toast, juice and like an instant coffee machine. I would prefer had some cereal and milk. The beds were very comfortable.  The hotel was close to Knotts Berry Farm, Independence Hall (historic) and other attractions, so was nice to see how beautiful things Buena Park has.   I would recommend this hotel for a tight budget, or if you are looking for a room for a quick stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r430125714-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>430125714</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Hotel room</t>
+  </si>
+  <si>
+    <t>The room was nice and big. The iron did not work.The room was cleaned but smelled like something strange. The beds were hard as hell. Nice decor. Was not in the room much. Nice location and area. Good Chinese food next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>The room was nice and big. The iron did not work.The room was cleaned but smelled like something strange. The beds were hard as hell. Nice decor. Was not in the room much. Nice location and area. Good Chinese food next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r429130147-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>429130147</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Ok for the price</t>
+  </si>
+  <si>
+    <t>This is a well kept and clean hotel. The price isn't bad for the area and its very close to Knotts Berry farm. It is NOT new and the accomodations are small but clean and safe!  Econo lodges can be dumps but this one was ok! Check in was quick and easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>This is a well kept and clean hotel. The price isn't bad for the area and its very close to Knotts Berry farm. It is NOT new and the accomodations are small but clean and safe!  Econo lodges can be dumps but this one was ok! Check in was quick and easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r392518987-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>392518987</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Decent for the price</t>
+  </si>
+  <si>
+    <t>This is an above average EconoLodge.  The staff was very friendly.  The room although older was fairly clean.  Everything worked in the room (although the shower water pressure could have been better perhaps an updated shower head would help)  The price is very reasonable for this hotel.  It's not the Taj Mahal bit it's also significantly better than most mid=priced hotels here in Anaheim.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2016</t>
+  </si>
+  <si>
+    <t>This is an above average EconoLodge.  The staff was very friendly.  The room although older was fairly clean.  Everything worked in the room (although the shower water pressure could have been better perhaps an updated shower head would help)  The price is very reasonable for this hotel.  It's not the Taj Mahal bit it's also significantly better than most mid=priced hotels here in Anaheim.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r302025361-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>302025361</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Please bypass this motel</t>
+  </si>
+  <si>
+    <t>Appalling in every way. The impression you get when you drive in is, what a dump!There is no kerb side appeal at all. The staff are not friendly or welcoming, you the customer are an inconvenience. The rooms are unpleasant and the fridge in our room was not working. The wifi was continuously up and down, making it impossible to do anything. The only plus point to be said about this place was the out door pool was very cooling.  Travelling with young children, we went to breakfast on our first morning to try the complimentary breakfast. We didn't bother again, doughnuts only and no seating for a family of four. Never, ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Appalling in every way. The impression you get when you drive in is, what a dump!There is no kerb side appeal at all. The staff are not friendly or welcoming, you the customer are an inconvenience. The rooms are unpleasant and the fridge in our room was not working. The wifi was continuously up and down, making it impossible to do anything. The only plus point to be said about this place was the out door pool was very cooling.  Travelling with young children, we went to breakfast on our first morning to try the complimentary breakfast. We didn't bother again, doughnuts only and no seating for a family of four. Never, ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r297784917-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>297784917</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>If you have the extra cash spend on something better</t>
+  </si>
+  <si>
+    <t>My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of...My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of frightened since we were 30 sec from being hit. Of course that night after a long day we want to get a good nights rest for Disneyland the next day but all night people screaming and slamming door. And the second and third night was no different. Also parking is a struggle so you better be on it or else you'll be stuck with parking in the neighborhood! The breakfast was horrible! I don't know why it's even offered the donuts hard as cardboard! Ewwww! Probably the only thing that made my friends and I happy was the Ac and the fact that every time we came back to our room it was clean and organized! Shout out to the housekeepers! Finally the day to leave came and we were happy to get out of there, thank god the check out was fast, we were ready to go! Honestly if you have the extra money go for something better!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of...My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of frightened since we were 30 sec from being hit. Of course that night after a long day we want to get a good nights rest for Disneyland the next day but all night people screaming and slamming door. And the second and third night was no different. Also parking is a struggle so you better be on it or else you'll be stuck with parking in the neighborhood! The breakfast was horrible! I don't know why it's even offered the donuts hard as cardboard! Ewwww! Probably the only thing that made my friends and I happy was the Ac and the fact that every time we came back to our room it was clean and organized! Shout out to the housekeepers! Finally the day to leave came and we were happy to get out of there, thank god the check out was fast, we were ready to go! Honestly if you have the extra money go for something better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r285167895-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>285167895</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>nice place</t>
+  </si>
+  <si>
+    <t>Stayed over the weekend, Nice clean rooms, comfy clean bed, clean bathroom, pool, and food served in the mornings. close to stores, restaurants and both Knotts Berry farm and Knotts water park. i would stay there again :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed over the weekend, Nice clean rooms, comfy clean bed, clean bathroom, pool, and food served in the mornings. close to stores, restaurants and both Knotts Berry farm and Knotts water park. i would stay there again :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r274918016-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>274918016</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The room was good overall. But the complimentary continental breakfast they offerred was too bad. It was just a few slices of bread nd some donuts. The cafeteria was also small, with 3 tables. The parking lots were enough in number but all were compact sized. And if you needed water, you had to pay 2 dollars for a bottle. You get soda too at the same rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>The room was good overall. But the complimentary continental breakfast they offerred was too bad. It was just a few slices of bread nd some donuts. The cafeteria was also small, with 3 tables. The parking lots were enough in number but all were compact sized. And if you needed water, you had to pay 2 dollars for a bottle. You get soda too at the same rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r273974943-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>273974943</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>We were looking for a cheap option for Disneyland for the 60th anniversary kickoff. The hotel is shabby but clean. Our first night we got woken up at 2:30 by a very loud group outside (possibly a high school group- there was a bus). Our second night someone started tapping on our door at 5:30am and when I called the front desk to let them know, they said that I could call the police if I want. It's your hotel, YOU take care of your guests!! Also, I'm pretty sure they sold my phone number, because I'm getting text messages now. You stay creepy, Anaheim.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were looking for a cheap option for Disneyland for the 60th anniversary kickoff. The hotel is shabby but clean. Our first night we got woken up at 2:30 by a very loud group outside (possibly a high school group- there was a bus). Our second night someone started tapping on our door at 5:30am and when I called the front desk to let them know, they said that I could call the police if I want. It's your hotel, YOU take care of your guests!! Also, I'm pretty sure they sold my phone number, because I'm getting text messages now. You stay creepy, Anaheim.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r236746996-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>236746996</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Great cheap room</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights. Cheap accommodation and the young guy at the counter was great help couldn't thank him enough. If your going to Knott's berry farm this is the place for you it's close and cheap. The rooms were clean and spacious with free parking</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r213479195-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>213479195</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Perfectly acceptable budget accommodation.</t>
+  </si>
+  <si>
+    <t>Our teenaged son wanted to attend his cousin's 21st birthday party. I did not want him to drive 40 miles each way at night to do that. So, I decided to book an overnight stay close to the party which would enable us to drop my son off and pick him up after the celebration. As we had 8000 points to use for one free night at a Choice Hotel property, I chose this motel as the best alternative among those available. I was a little apprehensive after reading some of the reviews here, but I was pleasantly surprised. The lobby/breakfast area was very clean and tidy. The front desk clerk was cordial and our two double bed room was pleasant. The paint looked fresh; the bedspreads were brightly colored; there was plenty of space; the bathroom was very clean. It is true that the water pressure in the shower is a bit low but it wasn't bad and the water temperature was fine. We did not try the free breakfast because we wanted a full breakfast, not just cereal, etc. The location is very close to Knott's Berry Farm and Buena Park Downtown; Disneyland is just a little bit further away. This property is not glamorous but if you wish to save money on accommodations and have more to spend at the theme parks, this is a good choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Our teenaged son wanted to attend his cousin's 21st birthday party. I did not want him to drive 40 miles each way at night to do that. So, I decided to book an overnight stay close to the party which would enable us to drop my son off and pick him up after the celebration. As we had 8000 points to use for one free night at a Choice Hotel property, I chose this motel as the best alternative among those available. I was a little apprehensive after reading some of the reviews here, but I was pleasantly surprised. The lobby/breakfast area was very clean and tidy. The front desk clerk was cordial and our two double bed room was pleasant. The paint looked fresh; the bedspreads were brightly colored; there was plenty of space; the bathroom was very clean. It is true that the water pressure in the shower is a bit low but it wasn't bad and the water temperature was fine. We did not try the free breakfast because we wanted a full breakfast, not just cereal, etc. The location is very close to Knott's Berry Farm and Buena Park Downtown; Disneyland is just a little bit further away. This property is not glamorous but if you wish to save money on accommodations and have more to spend at the theme parks, this is a good choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r205698477-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>205698477</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>was ok for the price</t>
+  </si>
+  <si>
+    <t>I stayed at this motel in March we (me and my children) on vacation we were not in the room for long we stayed for 5 days I think that being a General Manager of a motel myself that I was a little more critical on what I seen the place is due for an remodel it was old and the rooms had a weird smell.  Housekeeping came in everyday and gave us fresh towels and made our beds.  I had however asked if the front desk could print out our tickets for six flags and they told me no they could not when I know that they could.I also had to have one of my rooms moved due to the kids were woke up all hours of the night by the room next to them with fighting and I believe they are long term guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this motel in March we (me and my children) on vacation we were not in the room for long we stayed for 5 days I think that being a General Manager of a motel myself that I was a little more critical on what I seen the place is due for an remodel it was old and the rooms had a weird smell.  Housekeeping came in everyday and gave us fresh towels and made our beds.  I had however asked if the front desk could print out our tickets for six flags and they told me no they could not when I know that they could.I also had to have one of my rooms moved due to the kids were woke up all hours of the night by the room next to them with fighting and I believe they are long term guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r187232865-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>187232865</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>Value for your money!</t>
+  </si>
+  <si>
+    <t>First of all, I'm going to explain why I have said my stay was excellent.  It wasn't the glamour or the perfection of the place, as it was far from perfect, it was the face that it was excellent for the price we paid.  The staff were helpful and cheerful (even though we weren't after our long flight) and we had an excellent stay.  The room was very spacious and housekeeping came every day.  There were necessities in walking distance (Buena Park Mall) and Disneyland was only a $15-$20 cab ride (not including tip).  I have to say that if you have a car and are going to Disneyland this is the place to stay if you want to save money!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>First of all, I'm going to explain why I have said my stay was excellent.  It wasn't the glamour or the perfection of the place, as it was far from perfect, it was the face that it was excellent for the price we paid.  The staff were helpful and cheerful (even though we weren't after our long flight) and we had an excellent stay.  The room was very spacious and housekeeping came every day.  There were necessities in walking distance (Buena Park Mall) and Disneyland was only a $15-$20 cab ride (not including tip).  I have to say that if you have a car and are going to Disneyland this is the place to stay if you want to save money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r139779905-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>139779905</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Ughhh</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotels I've ever stayed at! The people here are scary an the front desk attendant acted like he had no idea what he was doing he barley spoke English and was alway out of towels and when they say "free continental breakfast" I thought that ment breakfast but all they had was toast  a muffin and apple juice but of course ran out! When I wanted to shower the tub had baby ants and a dead cockroach ..... When I called the front desk all he said was sorryc. Seriously I wouldn't stay here it's gross!!!!! The only good thing about this place is free Internet and the pool oh but it wasn't heated like they said it would be!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotels I've ever stayed at! The people here are scary an the front desk attendant acted like he had no idea what he was doing he barley spoke English and was alway out of towels and when they say "free continental breakfast" I thought that ment breakfast but all they had was toast  a muffin and apple juice but of course ran out! When I wanted to shower the tub had baby ants and a dead cockroach ..... When I called the front desk all he said was sorryc. Seriously I wouldn't stay here it's gross!!!!! The only good thing about this place is free Internet and the pool oh but it wasn't heated like they said it would be!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r139289828-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>139289828</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Front Desk</t>
+  </si>
+  <si>
+    <t>I have tried to call this place several times and every time that I do the way that their FD answers the phone is indecipherable. There must not be very high standards of customer service expected of the desk because the staff is horrible at phone conversations. I didn't even get to ask anything further than the rate before I had to end the phone call because of the guys tone and overall sense of irritability. whoever the guy is that worked the morning shift 9/3 needs to be retrained.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have tried to call this place several times and every time that I do the way that their FD answers the phone is indecipherable. There must not be very high standards of customer service expected of the desk because the staff is horrible at phone conversations. I didn't even get to ask anything further than the rate before I had to end the phone call because of the guys tone and overall sense of irritability. whoever the guy is that worked the morning shift 9/3 needs to be retrained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r134700057-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>134700057</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Great Room for the price</t>
+  </si>
+  <si>
+    <t>I don't see why people give bad reviews on this hotel. The price is very low for the great quality. I remember paying $28 more to stay at the Super 8 on W. Katella, only to find that I had to pay $8 a piece, per day, to "rent" a fridge and microwave. The only difference from Super 8 and Econolodge was an interior paint job. Econolodge provides cable, a  fridge, microwave and hairdryer at a fraction of the cost. Don't end up paying extra for a 2 star, there really is not a difference. We are a family of 4 that have had annual Disneyland passes for 2 years now. The Econolodge is a really nice 1 star that has nothing but families staying here in the middle of the week. I have seen no bad people hanging around. The mexican restraunt next store, Don Jose's is delicious!! This is the most affordable and well equipped room for thrifty Disney travellers!!The White FamilyGreg, Chrissy, Brianna and BenjaminMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I don't see why people give bad reviews on this hotel. The price is very low for the great quality. I remember paying $28 more to stay at the Super 8 on W. Katella, only to find that I had to pay $8 a piece, per day, to "rent" a fridge and microwave. The only difference from Super 8 and Econolodge was an interior paint job. Econolodge provides cable, a  fridge, microwave and hairdryer at a fraction of the cost. Don't end up paying extra for a 2 star, there really is not a difference. We are a family of 4 that have had annual Disneyland passes for 2 years now. The Econolodge is a really nice 1 star that has nothing but families staying here in the middle of the week. I have seen no bad people hanging around. The mexican restraunt next store, Don Jose's is delicious!! This is the most affordable and well equipped room for thrifty Disney travellers!!The White FamilyGreg, Chrissy, Brianna and BenjaminMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r73832960-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>73832960</t>
+  </si>
+  <si>
+    <t>08/04/2010</t>
+  </si>
+  <si>
+    <t>Get what you pay for. Looks nothing like pictures!</t>
+  </si>
+  <si>
+    <t>Dirty. Rooms stink. Maid service at 8:15 at night. Marks and such on walls, water damage on ceilings. Fridge and microwave work well, must say that. And wi-fi does work and is free. If it werent for the simple fact we only needed to sleep here and really couldnt afford more, we never would have stayed after I walked in the door. I would never stay here again! Pictures are way misleading..,.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Dirty. Rooms stink. Maid service at 8:15 at night. Marks and such on walls, water damage on ceilings. Fridge and microwave work well, must say that. And wi-fi does work and is free. If it werent for the simple fact we only needed to sleep here and really couldnt afford more, we never would have stayed after I walked in the door. I would never stay here again! Pictures are way misleading..,.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r22622213-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>22622213</t>
+  </si>
+  <si>
+    <t>12/10/2008</t>
+  </si>
+  <si>
+    <t>Had room with Jacuzzi - Not too bad</t>
+  </si>
+  <si>
+    <t>My wife and I needed a place to stay while we were in town visiting nearby Medieval Times.  We booked a room at this hotel via the Internet due to it's proximity and moderate price.  It was only $46 a night for the two of us.Once we arrived at the hotel, on a Tuesday night, we noticed that one of the rooms had a jacuzzi tub and we asked if it was available.  The gentleman at the front desk said that it was and it would be $100 a night which we agreed to.  The hotel has room entry doors to the outside so you can park near your room.  Our upgraded room was nicer than we expected.  We had a refrigerator, hair dryer, microwave, and all the lights worked and the king sized bed was comfortable.  The kicker was the jacuzzi, as it was larger than we expected, with strong jets once the tub was filled.  It certainly made the trip much nicer.  The room was in a corner on the 2nd of two floors and it was nice not to have foot traffic running past our door.  The only negative was that the employee at the check in would loudly announce everyone's room number as they checked in.  The lady just ahead of us asked that her room number be kept private and he agreed, then announced "You'll be in room 202."MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>My wife and I needed a place to stay while we were in town visiting nearby Medieval Times.  We booked a room at this hotel via the Internet due to it's proximity and moderate price.  It was only $46 a night for the two of us.Once we arrived at the hotel, on a Tuesday night, we noticed that one of the rooms had a jacuzzi tub and we asked if it was available.  The gentleman at the front desk said that it was and it would be $100 a night which we agreed to.  The hotel has room entry doors to the outside so you can park near your room.  Our upgraded room was nicer than we expected.  We had a refrigerator, hair dryer, microwave, and all the lights worked and the king sized bed was comfortable.  The kicker was the jacuzzi, as it was larger than we expected, with strong jets once the tub was filled.  It certainly made the trip much nicer.  The room was in a corner on the 2nd of two floors and it was nice not to have foot traffic running past our door.  The only negative was that the employee at the check in would loudly announce everyone's room number as they checked in.  The lady just ahead of us asked that her room number be kept private and he agreed, then announced "You'll be in room 202."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r6700150-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>6700150</t>
+  </si>
+  <si>
+    <t>01/25/2007</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>We booked a room at Econo Lodge North in Anaheim because all the hotels near Disneyland were full or extremely expensive due to a large convention in town.  The Econo Lodge was affordable, had what we needed, and was an easy fifteen minute drive to the Disneyland Resort via local roads.  The five freeway is shorter, but we used local roads to avoid any freeway and convention traffic.
+The motel is an older, remodeled building that has two floors and rooms accessible from the outdoors.  Parking spaces are adjacent to the rooms and surrounding a pool.  We stayed for seven nights and there appeared to be many empty rooms on the weeknights while Friday and Saturday the motel seemed full.  
+The room had the basics plus a microwave, refrigerator, coffee maker, and hair dryer.  The room was clean and functional with only two minor exceptions.  The lamp shades were stained and the sink and tub did not have drain plugs so they could not be filled if one wanted a basin or tub full of water.  Other than that I can think of no complaints.  In fact, for the price we paid ($50/night with AAA card) I was pleased with the comfortableness of the room, and I feel we got a fair deal.
+The staff was friendly and conversational when we visited the office in the morning for a bite to eat before heading to Disneyland or California Adventure each...We booked a room at Econo Lodge North in Anaheim because all the hotels near Disneyland were full or extremely expensive due to a large convention in town.  The Econo Lodge was affordable, had what we needed, and was an easy fifteen minute drive to the Disneyland Resort via local roads.  The five freeway is shorter, but we used local roads to avoid any freeway and convention traffic.The motel is an older, remodeled building that has two floors and rooms accessible from the outdoors.  Parking spaces are adjacent to the rooms and surrounding a pool.  We stayed for seven nights and there appeared to be many empty rooms on the weeknights while Friday and Saturday the motel seemed full.  The room had the basics plus a microwave, refrigerator, coffee maker, and hair dryer.  The room was clean and functional with only two minor exceptions.  The lamp shades were stained and the sink and tub did not have drain plugs so they could not be filled if one wanted a basin or tub full of water.  Other than that I can think of no complaints.  In fact, for the price we paid ($50/night with AAA card) I was pleased with the comfortableness of the room, and I feel we got a fair deal.The staff was friendly and conversational when we visited the office in the morning for a bite to eat before heading to Disneyland or California Adventure each day.  Coffee, Sunny Delite, toast, muffins, and danishes were provided from 7-10 am.  This is simply a basic motel with a few nice extras and it delivered what it advertised.  It's an Econo Lodge, not a Hilton, so my rating of "Above Average" is with that in mind, but I do feel it was above average for an economy motel, and I would recommend it to those on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>We booked a room at Econo Lodge North in Anaheim because all the hotels near Disneyland were full or extremely expensive due to a large convention in town.  The Econo Lodge was affordable, had what we needed, and was an easy fifteen minute drive to the Disneyland Resort via local roads.  The five freeway is shorter, but we used local roads to avoid any freeway and convention traffic.
+The motel is an older, remodeled building that has two floors and rooms accessible from the outdoors.  Parking spaces are adjacent to the rooms and surrounding a pool.  We stayed for seven nights and there appeared to be many empty rooms on the weeknights while Friday and Saturday the motel seemed full.  
+The room had the basics plus a microwave, refrigerator, coffee maker, and hair dryer.  The room was clean and functional with only two minor exceptions.  The lamp shades were stained and the sink and tub did not have drain plugs so they could not be filled if one wanted a basin or tub full of water.  Other than that I can think of no complaints.  In fact, for the price we paid ($50/night with AAA card) I was pleased with the comfortableness of the room, and I feel we got a fair deal.
+The staff was friendly and conversational when we visited the office in the morning for a bite to eat before heading to Disneyland or California Adventure each...We booked a room at Econo Lodge North in Anaheim because all the hotels near Disneyland were full or extremely expensive due to a large convention in town.  The Econo Lodge was affordable, had what we needed, and was an easy fifteen minute drive to the Disneyland Resort via local roads.  The five freeway is shorter, but we used local roads to avoid any freeway and convention traffic.The motel is an older, remodeled building that has two floors and rooms accessible from the outdoors.  Parking spaces are adjacent to the rooms and surrounding a pool.  We stayed for seven nights and there appeared to be many empty rooms on the weeknights while Friday and Saturday the motel seemed full.  The room had the basics plus a microwave, refrigerator, coffee maker, and hair dryer.  The room was clean and functional with only two minor exceptions.  The lamp shades were stained and the sink and tub did not have drain plugs so they could not be filled if one wanted a basin or tub full of water.  Other than that I can think of no complaints.  In fact, for the price we paid ($50/night with AAA card) I was pleased with the comfortableness of the room, and I feel we got a fair deal.The staff was friendly and conversational when we visited the office in the morning for a bite to eat before heading to Disneyland or California Adventure each day.  Coffee, Sunny Delite, toast, muffins, and danishes were provided from 7-10 am.  This is simply a basic motel with a few nice extras and it delivered what it advertised.  It's an Econo Lodge, not a Hilton, so my rating of "Above Average" is with that in mind, but I do feel it was above average for an economy motel, and I would recommend it to those on a budget.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1158,1355 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Quaker0ats</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>It would have been nice if the refrigerator in the room worked, although the microwave definitely did.  Besides the killer-hot coffee, breakfast wasn't all that great and didn't even open on time each of the three days I stayed.But at least the staff seemed to care what they were doing. No one's fault, but the place is hard to find in that La Palma Avenue, in the 8600 block, suddenly becomes West La Palma, 2600!More</t>
   </si>
   <si>
+    <t>Superevangelist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r511381272-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Stayed here 4 nights when in Anaheim on business. I was pleasantly surprised with the cleanliness of the room. The old appearance of the outside doesn’t give much hope but the room itself was clean and maintained. The bed was reasonably comfortable but the pillows were difficult to relax with. The breakfast was almost non existent. A few donuts, and bread for making toast. Very basic. Not bad for families on a budget but don’t expect much more than a clean room. More</t>
   </si>
   <si>
+    <t>Fabiana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r488954313-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>We stayed at this motel for the first time and in a non-smoking room. The room was clean, it had a microwave and refrigerator so that is a plus. The breakfast consisted of donuts, toast, juice and like an instant coffee machine. I would prefer had some cereal and milk. The beds were very comfortable.  The hotel was close to Knotts Berry Farm, Independence Hall (historic) and other attractions, so was nice to see how beautiful things Buena Park has.   I would recommend this hotel for a tight budget, or if you are looking for a room for a quick stay. More</t>
   </si>
   <si>
+    <t>shahn695</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r430125714-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>The room was nice and big. The iron did not work.The room was cleaned but smelled like something strange. The beds were hard as hell. Nice decor. Was not in the room much. Nice location and area. Good Chinese food next door.More</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r429130147-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>This is a well kept and clean hotel. The price isn't bad for the area and its very close to Knotts Berry farm. It is NOT new and the accomodations are small but clean and safe!  Econo lodges can be dumps but this one was ok! Check in was quick and easy.More</t>
   </si>
   <si>
+    <t>Dale K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r392518987-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>This is an above average EconoLodge.  The staff was very friendly.  The room although older was fairly clean.  Everything worked in the room (although the shower water pressure could have been better perhaps an updated shower head would help)  The price is very reasonable for this hotel.  It's not the Taj Mahal bit it's also significantly better than most mid=priced hotels here in Anaheim.More</t>
   </si>
   <si>
+    <t>London_EnglandPaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r302025361-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>Appalling in every way. The impression you get when you drive in is, what a dump!There is no kerb side appeal at all. The staff are not friendly or welcoming, you the customer are an inconvenience. The rooms are unpleasant and the fridge in our room was not working. The wifi was continuously up and down, making it impossible to do anything. The only plus point to be said about this place was the out door pool was very cooling.  Travelling with young children, we went to breakfast on our first morning to try the complimentary breakfast. We didn't bother again, doughnuts only and no seating for a family of four. Never, ever again.More</t>
   </si>
   <si>
+    <t>Maggie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r297784917-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of...My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of frightened since we were 30 sec from being hit. Of course that night after a long day we want to get a good nights rest for Disneyland the next day but all night people screaming and slamming door. And the second and third night was no different. Also parking is a struggle so you better be on it or else you'll be stuck with parking in the neighborhood! The breakfast was horrible! I don't know why it's even offered the donuts hard as cardboard! Ewwww! Probably the only thing that made my friends and I happy was the Ac and the fact that every time we came back to our room it was clean and organized! Shout out to the housekeepers! Finally the day to leave came and we were happy to get out of there, thank god the check out was fast, we were ready to go! Honestly if you have the extra money go for something better!More</t>
   </si>
   <si>
+    <t>calisirena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r285167895-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>Stayed over the weekend, Nice clean rooms, comfy clean bed, clean bathroom, pool, and food served in the mornings. close to stores, restaurants and both Knotts Berry farm and Knotts water park. i would stay there again :)More</t>
   </si>
   <si>
+    <t>Anjudan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r274918016-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -420,6 +450,9 @@
     <t>The room was good overall. But the complimentary continental breakfast they offerred was too bad. It was just a few slices of bread nd some donuts. The cafeteria was also small, with 3 tables. The parking lots were enough in number but all were compact sized. And if you needed water, you had to pay 2 dollars for a bottle. You get soda too at the same rate.More</t>
   </si>
   <si>
+    <t>SarahLortie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r273974943-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>We were looking for a cheap option for Disneyland for the 60th anniversary kickoff. The hotel is shabby but clean. Our first night we got woken up at 2:30 by a very loud group outside (possibly a high school group- there was a bus). Our second night someone started tapping on our door at 5:30am and when I called the front desk to let them know, they said that I could call the police if I want. It's your hotel, YOU take care of your guests!! Also, I'm pretty sure they sold my phone number, because I'm getting text messages now. You stay creepy, Anaheim.More</t>
   </si>
   <si>
+    <t>Ilovetottavel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r236746996-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -456,6 +492,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>SJCLawyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r213479195-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -477,6 +516,9 @@
     <t>Our teenaged son wanted to attend his cousin's 21st birthday party. I did not want him to drive 40 miles each way at night to do that. So, I decided to book an overnight stay close to the party which would enable us to drop my son off and pick him up after the celebration. As we had 8000 points to use for one free night at a Choice Hotel property, I chose this motel as the best alternative among those available. I was a little apprehensive after reading some of the reviews here, but I was pleasantly surprised. The lobby/breakfast area was very clean and tidy. The front desk clerk was cordial and our two double bed room was pleasant. The paint looked fresh; the bedspreads were brightly colored; there was plenty of space; the bathroom was very clean. It is true that the water pressure in the shower is a bit low but it wasn't bad and the water temperature was fine. We did not try the free breakfast because we wanted a full breakfast, not just cereal, etc. The location is very close to Knott's Berry Farm and Buena Park Downtown; Disneyland is just a little bit further away. This property is not glamorous but if you wish to save money on accommodations and have more to spend at the theme parks, this is a good choice!More</t>
   </si>
   <si>
+    <t>Dawn L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r205698477-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>I stayed at this motel in March we (me and my children) on vacation we were not in the room for long we stayed for 5 days I think that being a General Manager of a motel myself that I was a little more critical on what I seen the place is due for an remodel it was old and the rooms had a weird smell.  Housekeeping came in everyday and gave us fresh towels and made our beds.  I had however asked if the front desk could print out our tickets for six flags and they told me no they could not when I know that they could.I also had to have one of my rooms moved due to the kids were woke up all hours of the night by the room next to them with fighting and I believe they are long term guests.More</t>
   </si>
   <si>
+    <t>Micaela V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r187232865-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -525,6 +570,9 @@
     <t>First of all, I'm going to explain why I have said my stay was excellent.  It wasn't the glamour or the perfection of the place, as it was far from perfect, it was the face that it was excellent for the price we paid.  The staff were helpful and cheerful (even though we weren't after our long flight) and we had an excellent stay.  The room was very spacious and housekeeping came every day.  There were necessities in walking distance (Buena Park Mall) and Disneyland was only a $15-$20 cab ride (not including tip).  I have to say that if you have a car and are going to Disneyland this is the place to stay if you want to save money!More</t>
   </si>
   <si>
+    <t>Raquel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r139779905-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -552,6 +600,9 @@
     <t>This is one of the worst hotels I've ever stayed at! The people here are scary an the front desk attendant acted like he had no idea what he was doing he barley spoke English and was alway out of towels and when they say "free continental breakfast" I thought that ment breakfast but all they had was toast  a muffin and apple juice but of course ran out! When I wanted to shower the tub had baby ants and a dead cockroach ..... When I called the front desk all he said was sorryc. Seriously I wouldn't stay here it's gross!!!!! The only good thing about this place is free Internet and the pool oh but it wasn't heated like they said it would be!More</t>
   </si>
   <si>
+    <t>Terry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r139289828-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -570,6 +621,9 @@
     <t>I have tried to call this place several times and every time that I do the way that their FD answers the phone is indecipherable. There must not be very high standards of customer service expected of the desk because the staff is horrible at phone conversations. I didn't even get to ask anything further than the rate before I had to end the phone call because of the guys tone and overall sense of irritability. whoever the guy is that worked the morning shift 9/3 needs to be retrained.More</t>
   </si>
   <si>
+    <t>Christina W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r134700057-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -591,6 +645,9 @@
     <t>I don't see why people give bad reviews on this hotel. The price is very low for the great quality. I remember paying $28 more to stay at the Super 8 on W. Katella, only to find that I had to pay $8 a piece, per day, to "rent" a fridge and microwave. The only difference from Super 8 and Econolodge was an interior paint job. Econolodge provides cable, a  fridge, microwave and hairdryer at a fraction of the cost. Don't end up paying extra for a 2 star, there really is not a difference. We are a family of 4 that have had annual Disneyland passes for 2 years now. The Econolodge is a really nice 1 star that has nothing but families staying here in the middle of the week. I have seen no bad people hanging around. The mexican restraunt next store, Don Jose's is delicious!! This is the most affordable and well equipped room for thrifty Disney travellers!!The White FamilyGreg, Chrissy, Brianna and BenjaminMore</t>
   </si>
   <si>
+    <t>JustinandSeAdee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r73832960-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -612,6 +669,9 @@
     <t>Dirty. Rooms stink. Maid service at 8:15 at night. Marks and such on walls, water damage on ceilings. Fridge and microwave work well, must say that. And wi-fi does work and is free. If it werent for the simple fact we only needed to sleep here and really couldnt afford more, we never would have stayed after I walked in the door. I would never stay here again! Pictures are way misleading..,.More</t>
   </si>
   <si>
+    <t>Keatho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r22622213-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -631,6 +691,9 @@
   </si>
   <si>
     <t>My wife and I needed a place to stay while we were in town visiting nearby Medieval Times.  We booked a room at this hotel via the Internet due to it's proximity and moderate price.  It was only $46 a night for the two of us.Once we arrived at the hotel, on a Tuesday night, we noticed that one of the rooms had a jacuzzi tub and we asked if it was available.  The gentleman at the front desk said that it was and it would be $100 a night which we agreed to.  The hotel has room entry doors to the outside so you can park near your room.  Our upgraded room was nicer than we expected.  We had a refrigerator, hair dryer, microwave, and all the lights worked and the king sized bed was comfortable.  The kicker was the jacuzzi, as it was larger than we expected, with strong jets once the tub was filled.  It certainly made the trip much nicer.  The room was in a corner on the 2nd of two floors and it was nice not to have foot traffic running past our door.  The only negative was that the employee at the check in would loudly announce everyone's room number as they checked in.  The lady just ahead of us asked that her room number be kept private and he agreed, then announced "You'll be in room 202."More</t>
+  </si>
+  <si>
+    <t>Disneyland07</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r6700150-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -1162,43 +1225,47 @@
       <c r="A2" t="n">
         <v>1900</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>142882</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1214,56 +1281,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1900</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>142883</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1275,56 +1346,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1900</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>142884</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1336,56 +1411,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1900</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>142885</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1397,56 +1476,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1900</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>8437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1462,56 +1545,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1900</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>100725</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1529,56 +1616,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1900</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>142886</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1596,56 +1687,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1900</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>3189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1657,47 +1752,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1900</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>142887</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1714,56 +1813,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1900</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>142888</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1775,56 +1878,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1900</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>142889</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1836,56 +1943,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1900</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>142890</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1899,50 +2010,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1900</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>142891</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1966,50 +2081,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1900</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>22011</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2031,56 +2150,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1900</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>142892</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2104,50 +2227,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1900</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>142893</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2163,56 +2290,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1900</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>18541</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2226,56 +2357,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1900</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>2492</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2299,50 +2434,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1900</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>142894</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2364,56 +2503,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1900</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>142895</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2437,50 +2580,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1900</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>142896</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2504,7 +2651,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
@@ -1226,7 +1226,7 @@
         <v>1900</v>
       </c>
       <c r="B2" t="n">
-        <v>142882</v>
+        <v>174093</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1295,7 +1295,7 @@
         <v>1900</v>
       </c>
       <c r="B3" t="n">
-        <v>142883</v>
+        <v>174094</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -1360,7 +1360,7 @@
         <v>1900</v>
       </c>
       <c r="B4" t="n">
-        <v>142884</v>
+        <v>174095</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -1425,7 +1425,7 @@
         <v>1900</v>
       </c>
       <c r="B5" t="n">
-        <v>142885</v>
+        <v>174096</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -1630,7 +1630,7 @@
         <v>1900</v>
       </c>
       <c r="B8" t="n">
-        <v>142886</v>
+        <v>174097</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -1766,7 +1766,7 @@
         <v>1900</v>
       </c>
       <c r="B10" t="n">
-        <v>142887</v>
+        <v>174098</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -1827,7 +1827,7 @@
         <v>1900</v>
       </c>
       <c r="B11" t="n">
-        <v>142888</v>
+        <v>174099</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
@@ -1892,7 +1892,7 @@
         <v>1900</v>
       </c>
       <c r="B12" t="n">
-        <v>142889</v>
+        <v>174100</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
@@ -1957,7 +1957,7 @@
         <v>1900</v>
       </c>
       <c r="B13" t="n">
-        <v>142890</v>
+        <v>174101</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -2018,7 +2018,7 @@
         <v>1900</v>
       </c>
       <c r="B14" t="n">
-        <v>142891</v>
+        <v>174102</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -2164,7 +2164,7 @@
         <v>1900</v>
       </c>
       <c r="B16" t="n">
-        <v>142892</v>
+        <v>174103</v>
       </c>
       <c r="C16" t="s">
         <v>176</v>
@@ -2235,7 +2235,7 @@
         <v>1900</v>
       </c>
       <c r="B17" t="n">
-        <v>142893</v>
+        <v>174104</v>
       </c>
       <c r="C17" t="s">
         <v>184</v>
@@ -2442,7 +2442,7 @@
         <v>1900</v>
       </c>
       <c r="B20" t="n">
-        <v>142894</v>
+        <v>174105</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
@@ -2517,7 +2517,7 @@
         <v>1900</v>
       </c>
       <c r="B21" t="n">
-        <v>142895</v>
+        <v>174106</v>
       </c>
       <c r="C21" t="s">
         <v>217</v>
@@ -2588,7 +2588,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="n">
-        <v>142896</v>
+        <v>174107</v>
       </c>
       <c r="C22" t="s">
         <v>225</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_232.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="336">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,108 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Quaker0ats</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r603092524-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>142251</t>
+  </si>
+  <si>
+    <t>603092524</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Clean rooms but a Shabby Exterior</t>
+  </si>
+  <si>
+    <t>The motel is quite small with tiny parking spaces. The exterior could use a good cleaning, pressure washing, sanding and a fresh coat of paint. The interiors are relatively modern, clean enough and include a mini-fridge and microwave. There isn't an elevator so travel light. The parking spaces are so narrow that my doors/ fenders got dinged by others getting in and out of their vehicles. The check in front desk lady was friendly and easy to work with. The maids are attentive but always short of towels and essentials. I basically gave this motel 4 stars because it was less expensive than motels next to Knott's, the downstairs room was o.k. and there weren't any bugs. Smokers were sitting on the stairs puffing away.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Hotel Manager at Econo Lodge Anaheim North, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The motel is quite small with tiny parking spaces. The exterior could use a good cleaning, pressure washing, sanding and a fresh coat of paint. The interiors are relatively modern, clean enough and include a mini-fridge and microwave. There isn't an elevator so travel light. The parking spaces are so narrow that my doors/ fenders got dinged by others getting in and out of their vehicles. The check in front desk lady was friendly and easy to work with. The maids are attentive but always short of towels and essentials. I basically gave this motel 4 stars because it was less expensive than motels next to Knott's, the downstairs room was o.k. and there weren't any bugs. Smokers were sitting on the stairs puffing away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r565506582-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>565506582</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>good deal</t>
+  </si>
+  <si>
+    <t>nice room.  wifi, bad coffee.  good nites sleep.  i didnt expect much from econo lodge but it was better than motel 6 so i was pleasently surprised.  the room was clean and the shower worked.  short drive to disneylandMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>nice room.  wifi, bad coffee.  good nites sleep.  i didnt expect much from econo lodge but it was better than motel 6 so i was pleasently surprised.  the room was clean and the shower worked.  short drive to disneylandMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r540548189-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>540548189</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel EVER</t>
+  </si>
+  <si>
+    <t>Absolutely the nastiest hotel in Anaheim. Sticky stained carpet. Worn beds that were not properly cleaned.(hair &amp;dirt inside sheets.)bathroom sink wouldn't drain due to broken drain plug, blood or some other nasty substance staining inside of sink and bathtub. Boogers on the wall and unclean bath. Please stay far away from this hotel. Econoldge should be ashamed of themselves for charging people to stay in these conditionsMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, webmaster at Econo Lodge Anaheim North, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Absolutely the nastiest hotel in Anaheim. Sticky stained carpet. Worn beds that were not properly cleaned.(hair &amp;dirt inside sheets.)bathroom sink wouldn't drain due to broken drain plug, blood or some other nasty substance staining inside of sink and bathtub. Boogers on the wall and unclean bath. Please stay far away from this hotel. Econoldge should be ashamed of themselves for charging people to stay in these conditionsMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r522957562-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
-    <t>29092</t>
-  </si>
-  <si>
-    <t>142251</t>
-  </si>
-  <si>
     <t>522957562</t>
   </si>
   <si>
@@ -192,9 +279,6 @@
     <t>It would have been nice if the refrigerator in the room worked, although the microwave definitely did.  Besides the killer-hot coffee, breakfast wasn't all that great and didn't even open on time each of the three days I stayed.But at least the staff seemed to care what they were doing. No one's fault, but the place is hard to find in that La Palma Avenue, in the 8600 block, suddenly becomes West La Palma, 2600!More</t>
   </si>
   <si>
-    <t>Superevangelist</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r511381272-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -213,9 +297,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>econolodgeanaheimca, webmaster at Econo Lodge Anaheim North, responded to this reviewResponded August 22, 2017</t>
   </si>
   <si>
@@ -225,9 +306,6 @@
     <t>Stayed here 4 nights when in Anaheim on business. I was pleasantly surprised with the cleanliness of the room. The old appearance of the outside doesn’t give much hope but the room itself was clean and maintained. The bed was reasonably comfortable but the pillows were difficult to relax with. The breakfast was almost non existent. A few donuts, and bread for making toast. Very basic. Not bad for families on a budget but don’t expect much more than a clean room. More</t>
   </si>
   <si>
-    <t>Fabiana M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r488954313-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -246,9 +324,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>econolodgeanaheimca, webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 3, 2017</t>
   </si>
   <si>
@@ -258,7 +333,58 @@
     <t>We stayed at this motel for the first time and in a non-smoking room. The room was clean, it had a microwave and refrigerator so that is a plus. The breakfast consisted of donuts, toast, juice and like an instant coffee machine. I would prefer had some cereal and milk. The beds were very comfortable.  The hotel was close to Knotts Berry Farm, Independence Hall (historic) and other attractions, so was nice to see how beautiful things Buena Park has.   I would recommend this hotel for a tight budget, or if you are looking for a room for a quick stay. More</t>
   </si>
   <si>
-    <t>shahn695</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r456560247-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>456560247</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>It Is What You'd Expect From an Econo Lodge</t>
+  </si>
+  <si>
+    <t>People are expecting the Ritz from an Econo Lodge. If you want to spend the money, there is a Hyatt up the street. The hotel was clean and quiet. What else do you look for in a motel room? The addition of a fridge and microwave and coffee maker just upped the ante. The breakfast was a disappointment though. Basically bread and donuts.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded February 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2017</t>
+  </si>
+  <si>
+    <t>People are expecting the Ritz from an Econo Lodge. If you want to spend the money, there is a Hyatt up the street. The hotel was clean and quiet. What else do you look for in a motel room? The addition of a fridge and microwave and coffee maker just upped the ante. The breakfast was a disappointment though. Basically bread and donuts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r436883755-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>436883755</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a quick getaway with the kids. If it was a choice, I would probably spend the extra money and get something a little nicer next time. The rooms were clean, it had a microwave and refrigerator so that is a plus.I prefer breakfast for the kids (at least cereal), and this breakfast consisted of donuts, toast, juice and like an instant coffee machine. The doors opened to the hotel so sometimes it was noisy early in the morning.The beds were very comfortable, it did not take long for anyone to fall asleep. The hotel was close to Knotts Berry Farm and other various attractions, so that was was quite nice.I would recommend this hotel for a tight budget, or if you are looking for a room for a quick stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>econolodgeanaheim1, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a quick getaway with the kids. If it was a choice, I would probably spend the extra money and get something a little nicer next time. The rooms were clean, it had a microwave and refrigerator so that is a plus.I prefer breakfast for the kids (at least cereal), and this breakfast consisted of donuts, toast, juice and like an instant coffee machine. The doors opened to the hotel so sometimes it was noisy early in the morning.The beds were very comfortable, it did not take long for anyone to fall asleep. The hotel was close to Knotts Berry Farm and other various attractions, so that was was quite nice.I would recommend this hotel for a tight budget, or if you are looking for a room for a quick stay. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r430125714-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -288,9 +414,6 @@
     <t>The room was nice and big. The iron did not work.The room was cleaned but smelled like something strange. The beds were hard as hell. Nice decor. Was not in the room much. Nice location and area. Good Chinese food next door.More</t>
   </si>
   <si>
-    <t>Jim K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r429130147-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -315,9 +438,6 @@
     <t>This is a well kept and clean hotel. The price isn't bad for the area and its very close to Knotts Berry farm. It is NOT new and the accomodations are small but clean and safe!  Econo lodges can be dumps but this one was ok! Check in was quick and easy.More</t>
   </si>
   <si>
-    <t>Dale K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r392518987-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -345,7 +465,52 @@
     <t>This is an above average EconoLodge.  The staff was very friendly.  The room although older was fairly clean.  Everything worked in the room (although the shower water pressure could have been better perhaps an updated shower head would help)  The price is very reasonable for this hotel.  It's not the Taj Mahal bit it's also significantly better than most mid=priced hotels here in Anaheim.More</t>
   </si>
   <si>
-    <t>London_EnglandPaul</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r357608468-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>357608468</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Clean Hotel</t>
+  </si>
+  <si>
+    <t>We don't usually stay in Econolodge because we've had some negative experiences, but this one was clean and well run.  The breakfast was just juice and coffee, toast and (very fresh) donuts.  Definitely not more than a continental breakfast but if you go in expecting nothing more, it was adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>We don't usually stay in Econolodge because we've had some negative experiences, but this one was clean and well run.  The breakfast was just juice and coffee, toast and (very fresh) donuts.  Definitely not more than a continental breakfast but if you go in expecting nothing more, it was adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r348390938-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>348390938</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Not too bad of a stay</t>
+  </si>
+  <si>
+    <t>My family and myself  just stayed here while visiting the area for a trip to Knotts. The room wasn't too bad, pretty clean.  Check in was pretty fast. Location is not too far from the park. The downfalls of this property are, the ice machine didn't work, the breakfast was minimal, and you can hear everything your upstairs neighbours are doing. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>My family and myself  just stayed here while visiting the area for a trip to Knotts. The room wasn't too bad, pretty clean.  Check in was pretty fast. Location is not too far from the park. The downfalls of this property are, the ice machine didn't work, the breakfast was minimal, and you can hear everything your upstairs neighbours are doing. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r302025361-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -366,18 +531,9 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 13, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 13, 2016</t>
-  </si>
-  <si>
     <t>Appalling in every way. The impression you get when you drive in is, what a dump!There is no kerb side appeal at all. The staff are not friendly or welcoming, you the customer are an inconvenience. The rooms are unpleasant and the fridge in our room was not working. The wifi was continuously up and down, making it impossible to do anything. The only plus point to be said about this place was the out door pool was very cooling.  Travelling with young children, we went to breakfast on our first morning to try the complimentary breakfast. We didn't bother again, doughnuts only and no seating for a family of four. Never, ever again.More</t>
   </si>
   <si>
-    <t>Maggie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r297784917-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -399,9 +555,6 @@
     <t>My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of...My friends and I unfortunately left our Disneyland trip last minute which means a hotel last minute, we chose this one because it didn't look too bad. Well we were definitely wrong. Walked in and right away got a negative vibe from the young man behind the counter. He was rude and seemed to care more about his phone. As we proceed to our room we notice that the pool is FULL and we can not get in, also doesn't look as clean as shown in the pictures online so it was a good decision to pass. When we get to out room there is a sign saying "non smoking" to our surprise as we open the door a strong scent of marijuana, of course. After a long travel we hop on the bed one is decent but the other one hard as a rock, ouch! My back was not happy after three nights! Anyways the TV was a good size and the cable was decent for a hotel but the wifi disappointing. Had to turn on my own hotspot which is not the business. After settling in we decide to go out and get some food and as we look around we realize the neighborhood is not the best so we decided to go to the jack in the box in the corner. On our way back we witnessed an accident at the intersection so we were kind of frightened since we were 30 sec from being hit. Of course that night after a long day we want to get a good nights rest for Disneyland the next day but all night people screaming and slamming door. And the second and third night was no different. Also parking is a struggle so you better be on it or else you'll be stuck with parking in the neighborhood! The breakfast was horrible! I don't know why it's even offered the donuts hard as cardboard! Ewwww! Probably the only thing that made my friends and I happy was the Ac and the fact that every time we came back to our room it was clean and organized! Shout out to the housekeepers! Finally the day to leave came and we were happy to get out of there, thank god the check out was fast, we were ready to go! Honestly if you have the extra money go for something better!More</t>
   </si>
   <si>
-    <t>calisirena</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r285167895-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -420,7 +573,52 @@
     <t>Stayed over the weekend, Nice clean rooms, comfy clean bed, clean bathroom, pool, and food served in the mornings. close to stores, restaurants and both Knotts Berry farm and Knotts water park. i would stay there again :)More</t>
   </si>
   <si>
-    <t>Anjudan</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r284445815-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>284445815</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Average Stay.</t>
+  </si>
+  <si>
+    <t>Booked this hotel because we were taking in Disneyland ($20 cab ride away) for the weekend.  Stayed in room 109 which has no connection to wifi.  The breakfast was toast and donuts.  Low shower pressure.  The beds were comfortable, the room was clean but a little worn.  Decent place to sleep - if you're looking for a hotel experience, I'd pass on this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded August 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2015</t>
+  </si>
+  <si>
+    <t>Booked this hotel because we were taking in Disneyland ($20 cab ride away) for the weekend.  Stayed in room 109 which has no connection to wifi.  The breakfast was toast and donuts.  Low shower pressure.  The beds were comfortable, the room was clean but a little worn.  Decent place to sleep - if you're looking for a hotel experience, I'd pass on this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r281262866-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>281262866</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Poor Management Very Dishonest</t>
+  </si>
+  <si>
+    <t>When we arrived there my husbands credit card was worn and not reading the machine.  My husband told them to put it inside a plastic bag and the desk clerk would not listen to him.  Instead he proceeded to bend it over and over again.  My husband asked him not to do this and her still continued to do it.  Finally the owner, Mr. Patel, got a bag and it worked.  The room was big with three rooms and two big screen TVs but neither of them would work.  It is an old hotel and not that clean. After being refused into Disneyland on their 24hour day, we cam back the second night we were there and wanted to watch TV. I went down and informed the owner that the TVs had not worked the entire time we were there.  He informed me that a repair man would be there in the morning.  I told him we were checking out in the morning and he told me he would be there in 5 minutes and never came.  Mr. Patel did not care one bit about us having a good experience, he only cared that we were checking out the next morning and told me what he had to to get me out of his way.  The breakfast was horrible.  Donuts and juice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>When we arrived there my husbands credit card was worn and not reading the machine.  My husband told them to put it inside a plastic bag and the desk clerk would not listen to him.  Instead he proceeded to bend it over and over again.  My husband asked him not to do this and her still continued to do it.  Finally the owner, Mr. Patel, got a bag and it worked.  The room was big with three rooms and two big screen TVs but neither of them would work.  It is an old hotel and not that clean. After being refused into Disneyland on their 24hour day, we cam back the second night we were there and wanted to watch TV. I went down and informed the owner that the TVs had not worked the entire time we were there.  He informed me that a repair man would be there in the morning.  I told him we were checking out in the morning and he told me he would be there in 5 minutes and never came.  Mr. Patel did not care one bit about us having a good experience, he only cared that we were checking out the next morning and told me what he had to to get me out of his way.  The breakfast was horrible.  Donuts and juice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r274918016-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -438,9 +636,6 @@
     <t>The room was good overall. But the complimentary continental breakfast they offerred was too bad. It was just a few slices of bread nd some donuts. The cafeteria was also small, with 3 tables. The parking lots were enough in number but all were compact sized. And if you needed water, you had to pay 2 dollars for a bottle. You get soda too at the same rate.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded June 4, 2015</t>
   </si>
   <si>
@@ -450,9 +645,6 @@
     <t>The room was good overall. But the complimentary continental breakfast they offerred was too bad. It was just a few slices of bread nd some donuts. The cafeteria was also small, with 3 tables. The parking lots were enough in number but all were compact sized. And if you needed water, you had to pay 2 dollars for a bottle. You get soda too at the same rate.More</t>
   </si>
   <si>
-    <t>SarahLortie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r273974943-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -468,9 +660,6 @@
     <t>We were looking for a cheap option for Disneyland for the 60th anniversary kickoff. The hotel is shabby but clean. Our first night we got woken up at 2:30 by a very loud group outside (possibly a high school group- there was a bus). Our second night someone started tapping on our door at 5:30am and when I called the front desk to let them know, they said that I could call the police if I want. It's your hotel, YOU take care of your guests!! Also, I'm pretty sure they sold my phone number, because I'm getting text messages now. You stay creepy, Anaheim.More</t>
   </si>
   <si>
-    <t>Ilovetottavel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r236746996-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -489,10 +678,57 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>SJCLawyer</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r226192595-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>226192595</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>*Siiiigh... Econo Lodge North</t>
+  </si>
+  <si>
+    <t>This visit took place August 29 - September 1 2014. Check in was great. I was paying cash, called earlier and my room was paid for when I arrived. I was cheerfully greeted by two friendly fellows, checked in and given room 220. It was fairly fast and entertaining. 
+I arrived at 3p.m. and was told my room was still not quite ready but I was ready to get out of the car so I still went up. There are no elevators. I was greeted by by neighbor who was with her small child out on the balcony, the room door wide open and the beds unmade. I booked the smoking room to save a few bucks (I've done this before at other locations but the rooms never smelled like smoke) THIS ROOM SMELLED LIKE SMOKE. My fault. 
+The room was fair in size, had a fridge that worked great, a microwave, alarm radio, hair dryer and a smaller flat screen. 
+I asked the housekeeper for extra pillows and she brought them promptly and about an hour later the rest of my bedding. The blanket had burn holes but the linen was clean. The bed was great! Very comfortable and this surprised me considering what the linen looked like. 
+The restroom was ok in size. Towels are worn and small but clean. The carpet near the restroom was wet but you really should wear shoes in a place like this....This visit took place August 29 - September 1 2014. Check in was great. I was paying cash, called earlier and my room was paid for when I arrived. I was cheerfully greeted by two friendly fellows, checked in and given room 220. It was fairly fast and entertaining. I arrived at 3p.m. and was told my room was still not quite ready but I was ready to get out of the car so I still went up. There are no elevators. I was greeted by by neighbor who was with her small child out on the balcony, the room door wide open and the beds unmade. I booked the smoking room to save a few bucks (I've done this before at other locations but the rooms never smelled like smoke) THIS ROOM SMELLED LIKE SMOKE. My fault. The room was fair in size, had a fridge that worked great, a microwave, alarm radio, hair dryer and a smaller flat screen. I asked the housekeeper for extra pillows and she brought them promptly and about an hour later the rest of my bedding. The blanket had burn holes but the linen was clean. The bed was great! Very comfortable and this surprised me considering what the linen looked like. The restroom was ok in size. Towels are worn and small but clean. The carpet near the restroom was wet but you really should wear shoes in a place like this. So the reason I WILL NOT return. There are some scary characters that frequent the property. Ie: While finally resting 2 hours into our check in we were woken up by a woman pounding frantically on our door and window. For some reason we opened the door after she continued to knock and she was trying to come in to look for her husband. We explained he was not there and she went down the rooms. I phoned the manager and he came out but not before she came back to our room pounding and yelling she just wanted to apologize. I called the office and was told the manager was calling the police. He came out and made threats to call the cops, then she became aggressive with us. She finally left but I was freaked out! The manager came and apologized but that's not sufficient with the crazy we dealt with. Wanted to leave but these sort of places don't give refunds. On the same day our neighbor had her kids picked up by CPS. It was an awkward walk to the room. At night I did not feel safe due to the men roaming the lot and women "working". The last night we had some thugs next door that hung out on the balcony in front of our room and played loud music. I was hoping management would notice but it went unnoticed.  Speaking of the lot, parking is impossible at night. We had to park in the red. At check out the management posted No Loitering signs but they didn't seem to effective. Near by is a couple restaurants, freeways, 15 minute drive to Disneyland, 5 to Knotts and a strip club in the back. I'm sorry, I loved the man that checked us in and out and the bed but there were way to many things I couldn't tolerate and I don't recommend this place especially if you are with children. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>This visit took place August 29 - September 1 2014. Check in was great. I was paying cash, called earlier and my room was paid for when I arrived. I was cheerfully greeted by two friendly fellows, checked in and given room 220. It was fairly fast and entertaining. 
+I arrived at 3p.m. and was told my room was still not quite ready but I was ready to get out of the car so I still went up. There are no elevators. I was greeted by by neighbor who was with her small child out on the balcony, the room door wide open and the beds unmade. I booked the smoking room to save a few bucks (I've done this before at other locations but the rooms never smelled like smoke) THIS ROOM SMELLED LIKE SMOKE. My fault. 
+The room was fair in size, had a fridge that worked great, a microwave, alarm radio, hair dryer and a smaller flat screen. 
+I asked the housekeeper for extra pillows and she brought them promptly and about an hour later the rest of my bedding. The blanket had burn holes but the linen was clean. The bed was great! Very comfortable and this surprised me considering what the linen looked like. 
+The restroom was ok in size. Towels are worn and small but clean. The carpet near the restroom was wet but you really should wear shoes in a place like this....This visit took place August 29 - September 1 2014. Check in was great. I was paying cash, called earlier and my room was paid for when I arrived. I was cheerfully greeted by two friendly fellows, checked in and given room 220. It was fairly fast and entertaining. I arrived at 3p.m. and was told my room was still not quite ready but I was ready to get out of the car so I still went up. There are no elevators. I was greeted by by neighbor who was with her small child out on the balcony, the room door wide open and the beds unmade. I booked the smoking room to save a few bucks (I've done this before at other locations but the rooms never smelled like smoke) THIS ROOM SMELLED LIKE SMOKE. My fault. The room was fair in size, had a fridge that worked great, a microwave, alarm radio, hair dryer and a smaller flat screen. I asked the housekeeper for extra pillows and she brought them promptly and about an hour later the rest of my bedding. The blanket had burn holes but the linen was clean. The bed was great! Very comfortable and this surprised me considering what the linen looked like. The restroom was ok in size. Towels are worn and small but clean. The carpet near the restroom was wet but you really should wear shoes in a place like this. So the reason I WILL NOT return. There are some scary characters that frequent the property. Ie: While finally resting 2 hours into our check in we were woken up by a woman pounding frantically on our door and window. For some reason we opened the door after she continued to knock and she was trying to come in to look for her husband. We explained he was not there and she went down the rooms. I phoned the manager and he came out but not before she came back to our room pounding and yelling she just wanted to apologize. I called the office and was told the manager was calling the police. He came out and made threats to call the cops, then she became aggressive with us. She finally left but I was freaked out! The manager came and apologized but that's not sufficient with the crazy we dealt with. Wanted to leave but these sort of places don't give refunds. On the same day our neighbor had her kids picked up by CPS. It was an awkward walk to the room. At night I did not feel safe due to the men roaming the lot and women "working". The last night we had some thugs next door that hung out on the balcony in front of our room and played loud music. I was hoping management would notice but it went unnoticed.  Speaking of the lot, parking is impossible at night. We had to park in the red. At check out the management posted No Loitering signs but they didn't seem to effective. Near by is a couple restaurants, freeways, 15 minute drive to Disneyland, 5 to Knotts and a strip club in the back. I'm sorry, I loved the man that checked us in and out and the bed but there were way to many things I couldn't tolerate and I don't recommend this place especially if you are with children. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r221694496-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>221694496</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Nice little place to stay at</t>
+  </si>
+  <si>
+    <t>The price was not bad for the quality of the room. Clean with no odors.  Large flat screen tv and a small ice box. Swimming pool located on ground floor in parking lot. Walking distance from a few restaurants and stores.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r213479195-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -516,9 +752,6 @@
     <t>Our teenaged son wanted to attend his cousin's 21st birthday party. I did not want him to drive 40 miles each way at night to do that. So, I decided to book an overnight stay close to the party which would enable us to drop my son off and pick him up after the celebration. As we had 8000 points to use for one free night at a Choice Hotel property, I chose this motel as the best alternative among those available. I was a little apprehensive after reading some of the reviews here, but I was pleasantly surprised. The lobby/breakfast area was very clean and tidy. The front desk clerk was cordial and our two double bed room was pleasant. The paint looked fresh; the bedspreads were brightly colored; there was plenty of space; the bathroom was very clean. It is true that the water pressure in the shower is a bit low but it wasn't bad and the water temperature was fine. We did not try the free breakfast because we wanted a full breakfast, not just cereal, etc. The location is very close to Knott's Berry Farm and Buena Park Downtown; Disneyland is just a little bit further away. This property is not glamorous but if you wish to save money on accommodations and have more to spend at the theme parks, this is a good choice!More</t>
   </si>
   <si>
-    <t>Dawn L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r205698477-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -546,9 +779,6 @@
     <t>I stayed at this motel in March we (me and my children) on vacation we were not in the room for long we stayed for 5 days I think that being a General Manager of a motel myself that I was a little more critical on what I seen the place is due for an remodel it was old and the rooms had a weird smell.  Housekeeping came in everyday and gave us fresh towels and made our beds.  I had however asked if the front desk could print out our tickets for six flags and they told me no they could not when I know that they could.I also had to have one of my rooms moved due to the kids were woke up all hours of the night by the room next to them with fighting and I believe they are long term guests.More</t>
   </si>
   <si>
-    <t>Micaela V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r187232865-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -570,7 +800,46 @@
     <t>First of all, I'm going to explain why I have said my stay was excellent.  It wasn't the glamour or the perfection of the place, as it was far from perfect, it was the face that it was excellent for the price we paid.  The staff were helpful and cheerful (even though we weren't after our long flight) and we had an excellent stay.  The room was very spacious and housekeeping came every day.  There were necessities in walking distance (Buena Park Mall) and Disneyland was only a $15-$20 cab ride (not including tip).  I have to say that if you have a car and are going to Disneyland this is the place to stay if you want to save money!More</t>
   </si>
   <si>
-    <t>Raquel L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r155035279-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>155035279</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Decent location, it seems their maid service is non-existent. We came back to our room at 5 pm after being out all day and nothing had been done. My wife went and chased down some clean towels. This hotet is what it is, convenient location,cheap price, and old and tired. Probably ok for 1 nightMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Decent location, it seems their maid service is non-existent. We came back to our room at 5 pm after being out all day and nothing had been done. My wife went and chased down some clean towels. This hotet is what it is, convenient location,cheap price, and old and tired. Probably ok for 1 nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r153124695-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>153124695</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Room was nothing to brag about but shower required you to stand right under it to get wet.  As my son put it, the shower is a "little underwhelming". Flow restrictor was really restricting shower flow.  Parking is horrible, there were 8 more cars than parking spots, so cars were blocking those in parking spaces. Went to get coffee at 5:30am and no one in office or walking grounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Room was nothing to brag about but shower required you to stand right under it to get wet.  As my son put it, the shower is a "little underwhelming". Flow restrictor was really restricting shower flow.  Parking is horrible, there were 8 more cars than parking spots, so cars were blocking those in parking spaces. Went to get coffee at 5:30am and no one in office or walking grounds.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r139779905-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -591,18 +860,9 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>econolodgeanaheimca, Webmaster at Econo Lodge Anaheim North, responded to this reviewResponded July 16, 2013</t>
-  </si>
-  <si>
-    <t>Responded July 16, 2013</t>
-  </si>
-  <si>
     <t>This is one of the worst hotels I've ever stayed at! The people here are scary an the front desk attendant acted like he had no idea what he was doing he barley spoke English and was alway out of towels and when they say "free continental breakfast" I thought that ment breakfast but all they had was toast  a muffin and apple juice but of course ran out! When I wanted to shower the tub had baby ants and a dead cockroach ..... When I called the front desk all he said was sorryc. Seriously I wouldn't stay here it's gross!!!!! The only good thing about this place is free Internet and the pool oh but it wasn't heated like they said it would be!More</t>
   </si>
   <si>
-    <t>Terry C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r139289828-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -621,9 +881,6 @@
     <t>I have tried to call this place several times and every time that I do the way that their FD answers the phone is indecipherable. There must not be very high standards of customer service expected of the desk because the staff is horrible at phone conversations. I didn't even get to ask anything further than the rate before I had to end the phone call because of the guys tone and overall sense of irritability. whoever the guy is that worked the morning shift 9/3 needs to be retrained.More</t>
   </si>
   <si>
-    <t>Christina W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r134700057-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -645,7 +902,37 @@
     <t>I don't see why people give bad reviews on this hotel. The price is very low for the great quality. I remember paying $28 more to stay at the Super 8 on W. Katella, only to find that I had to pay $8 a piece, per day, to "rent" a fridge and microwave. The only difference from Super 8 and Econolodge was an interior paint job. Econolodge provides cable, a  fridge, microwave and hairdryer at a fraction of the cost. Don't end up paying extra for a 2 star, there really is not a difference. We are a family of 4 that have had annual Disneyland passes for 2 years now. The Econolodge is a really nice 1 star that has nothing but families staying here in the middle of the week. I have seen no bad people hanging around. The mexican restraunt next store, Don Jose's is delicious!! This is the most affordable and well equipped room for thrifty Disney travellers!!The White FamilyGreg, Chrissy, Brianna and BenjaminMore</t>
   </si>
   <si>
-    <t>JustinandSeAdee</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r134287103-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>134287103</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>About what you expect</t>
+  </si>
+  <si>
+    <t>Was looking for an inexpensive place for one night after an Angels game. This place delivers about what you expect from an Econo Lodge. Things are a little worn, but generally clean. It was a little noisy in the late evening, but not terrible. Located very close to Knotts Berry Farm and a few blocks from several chain restaurants and 1/2 block from Keno's Sports Bar, which had a veru filling dinner special at a great price.The staff was very plesant and helpful, even though the first room they sent me too had not been cleaned yet.The breakfast is very basic; coffee, huice and muffins.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r123463050-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>123463050</t>
+  </si>
+  <si>
+    <t>01/22/2012</t>
+  </si>
+  <si>
+    <t>ok stay</t>
+  </si>
+  <si>
+    <t>the front desk was nice and helpful, but the walls are paper thin. It sounded as if the stairs were in my room. I couldn't sleep all night. The bed is comfy &amp; the room is clean and orderly, it is just old and has a slight smell. Normally it would be acceptable, but I did not feel safe &amp; it was too noisy. Breakfast was very nice with muffins, toast, juice and coffee. It is nice having that hot coffee &amp; toast there in the morning.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r73832960-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -669,9 +956,6 @@
     <t>Dirty. Rooms stink. Maid service at 8:15 at night. Marks and such on walls, water damage on ceilings. Fridge and microwave work well, must say that. And wi-fi does work and is free. If it werent for the simple fact we only needed to sleep here and really couldnt afford more, we never would have stayed after I walked in the door. I would never stay here again! Pictures are way misleading..,.More</t>
   </si>
   <si>
-    <t>Keatho</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r22622213-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
   </si>
   <si>
@@ -691,9 +975,6 @@
   </si>
   <si>
     <t>My wife and I needed a place to stay while we were in town visiting nearby Medieval Times.  We booked a room at this hotel via the Internet due to it's proximity and moderate price.  It was only $46 a night for the two of us.Once we arrived at the hotel, on a Tuesday night, we noticed that one of the rooms had a jacuzzi tub and we asked if it was available.  The gentleman at the front desk said that it was and it would be $100 a night which we agreed to.  The hotel has room entry doors to the outside so you can park near your room.  Our upgraded room was nicer than we expected.  We had a refrigerator, hair dryer, microwave, and all the lights worked and the king sized bed was comfortable.  The kicker was the jacuzzi, as it was larger than we expected, with strong jets once the tub was filled.  It certainly made the trip much nicer.  The room was in a corner on the 2nd of two floors and it was nice not to have foot traffic running past our door.  The only negative was that the employee at the check in would loudly announce everyone's room number as they checked in.  The lady just ahead of us asked that her room number be kept private and he agreed, then announced "You'll be in room 202."More</t>
-  </si>
-  <si>
-    <t>Disneyland07</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r6700150-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
@@ -721,6 +1002,42 @@
 The motel is an older, remodeled building that has two floors and rooms accessible from the outdoors.  Parking spaces are adjacent to the rooms and surrounding a pool.  We stayed for seven nights and there appeared to be many empty rooms on the weeknights while Friday and Saturday the motel seemed full.  
 The room had the basics plus a microwave, refrigerator, coffee maker, and hair dryer.  The room was clean and functional with only two minor exceptions.  The lamp shades were stained and the sink and tub did not have drain plugs so they could not be filled if one wanted a basin or tub full of water.  Other than that I can think of no complaints.  In fact, for the price we paid ($50/night with AAA card) I was pleased with the comfortableness of the room, and I feel we got a fair deal.
 The staff was friendly and conversational when we visited the office in the morning for a bite to eat before heading to Disneyland or California Adventure each...We booked a room at Econo Lodge North in Anaheim because all the hotels near Disneyland were full or extremely expensive due to a large convention in town.  The Econo Lodge was affordable, had what we needed, and was an easy fifteen minute drive to the Disneyland Resort via local roads.  The five freeway is shorter, but we used local roads to avoid any freeway and convention traffic.The motel is an older, remodeled building that has two floors and rooms accessible from the outdoors.  Parking spaces are adjacent to the rooms and surrounding a pool.  We stayed for seven nights and there appeared to be many empty rooms on the weeknights while Friday and Saturday the motel seemed full.  The room had the basics plus a microwave, refrigerator, coffee maker, and hair dryer.  The room was clean and functional with only two minor exceptions.  The lamp shades were stained and the sink and tub did not have drain plugs so they could not be filled if one wanted a basin or tub full of water.  Other than that I can think of no complaints.  In fact, for the price we paid ($50/night with AAA card) I was pleased with the comfortableness of the room, and I feel we got a fair deal.The staff was friendly and conversational when we visited the office in the morning for a bite to eat before heading to Disneyland or California Adventure each day.  Coffee, Sunny Delite, toast, muffins, and danishes were provided from 7-10 am.  This is simply a basic motel with a few nice extras and it delivered what it advertised.  It's an Econo Lodge, not a Hilton, so my rating of "Above Average" is with that in mind, but I do feel it was above average for an economy motel, and I would recommend it to those on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r6317703-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>6317703</t>
+  </si>
+  <si>
+    <t>12/01/2006</t>
+  </si>
+  <si>
+    <t>If you like crickets, this is your place!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I just needed a place to stay for the night after going to Knotts Berry Farm, so we went to the closest place.Although it says, "Free Wireless Internet" on a pamphlet in the room, you can only get that if you book your reservation through a website I've never heard of. You should made sure your the lightbulbs in your lamp work, because none of ours did. But one did turn on and off if you moved on the bed. This wouldn't have been so bad if I hadn't gotten up at 12:00 am to use the bathroom and find a couple of crickets on the carpet. I thought I heard some, but didn't think they'd be in our room. Then when more came along, we asked for a room change. We did get a better room, but the glow from the red border lights of the hotel shined in our room through the blinds.I wouldn't recommend staying there, even for one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>My boyfriend and I just needed a place to stay for the night after going to Knotts Berry Farm, so we went to the closest place.Although it says, "Free Wireless Internet" on a pamphlet in the room, you can only get that if you book your reservation through a website I've never heard of. You should made sure your the lightbulbs in your lamp work, because none of ours did. But one did turn on and off if you moved on the bed. This wouldn't have been so bad if I hadn't gotten up at 12:00 am to use the bathroom and find a couple of crickets on the carpet. I thought I heard some, but didn't think they'd be in our room. Then when more came along, we asked for a room change. We did get a better room, but the glow from the red border lights of the hotel shined in our room through the blinds.I wouldn't recommend staying there, even for one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d142251-r1154510-Econo_Lodge_Anaheim_North-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1154510</t>
+  </si>
+  <si>
+    <t>07/30/2003</t>
+  </si>
+  <si>
+    <t>Got what I expected.</t>
+  </si>
+  <si>
+    <t>Adequate amount of fast food chains nearby. Pretty average looking motel. Room had what is stated on reservation. Room was better than motel exterior. Donut breakfast. High tax area, 15%.</t>
   </si>
 </sst>
 </file>
@@ -1225,181 +1542,177 @@
       <c r="A2" t="n">
         <v>1900</v>
       </c>
-      <c r="B2" t="n">
-        <v>174093</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1900</v>
       </c>
-      <c r="B3" t="n">
-        <v>174094</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1900</v>
       </c>
-      <c r="B4" t="n">
-        <v>174095</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1411,336 +1724,310 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1900</v>
       </c>
-      <c r="B5" t="n">
-        <v>174096</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>82</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>83</v>
       </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1900</v>
       </c>
-      <c r="B6" t="n">
-        <v>8437</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>92</v>
       </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1900</v>
       </c>
-      <c r="B7" t="n">
-        <v>100725</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>101</v>
       </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
       <c r="O7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1900</v>
       </c>
-      <c r="B8" t="n">
-        <v>174097</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>110</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>115</v>
-      </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1900</v>
       </c>
-      <c r="B9" t="n">
-        <v>3189</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1752,57 +2039,57 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1900</v>
       </c>
-      <c r="B10" t="n">
-        <v>174098</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>128</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" t="s">
-        <v>132</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1813,528 +2100,490 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1900</v>
       </c>
-      <c r="B11" t="n">
-        <v>174099</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
         <v>135</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>136</v>
       </c>
-      <c r="J11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" t="s">
-        <v>139</v>
-      </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1900</v>
       </c>
-      <c r="B12" t="n">
-        <v>174100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>145</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>140</v>
-      </c>
       <c r="O12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1900</v>
       </c>
-      <c r="B13" t="n">
-        <v>174101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
         <v>151</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>152</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>153</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>154</v>
       </c>
-      <c r="L13" t="s">
-        <v>155</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>156</v>
-      </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" t="s">
+        <v>156</v>
+      </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1900</v>
       </c>
-      <c r="B14" t="n">
-        <v>174102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>159</v>
       </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>160</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>161</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>162</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>163</v>
       </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>164</v>
-      </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1900</v>
       </c>
-      <c r="B15" t="n">
-        <v>22011</v>
-      </c>
-      <c r="C15" t="s">
-        <v>166</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
         <v>167</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>168</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>169</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>170</v>
       </c>
-      <c r="L15" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>172</v>
-      </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1900</v>
       </c>
-      <c r="B16" t="n">
-        <v>174103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>178</v>
-      </c>
-      <c r="J16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>182</v>
-      </c>
-      <c r="O16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
       <c r="Y16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1900</v>
       </c>
-      <c r="B17" t="n">
-        <v>174104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>190</v>
-      </c>
-      <c r="O17" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="X17" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1900</v>
       </c>
-      <c r="B18" t="n">
-        <v>18541</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
@@ -2343,12 +2592,16 @@
         <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>2</v>
@@ -2363,295 +2616,1376 @@
         <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1900</v>
       </c>
-      <c r="B19" t="n">
-        <v>2492</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
       <c r="Y19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1900</v>
       </c>
-      <c r="B20" t="n">
-        <v>174105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>209</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1900</v>
       </c>
-      <c r="B21" t="n">
-        <v>174106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>217</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>157</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
       <c r="Y21" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1900</v>
       </c>
-      <c r="B22" t="n">
-        <v>174107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>225</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
         <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>262</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>263</v>
+      </c>
+      <c r="X28" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>290</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>308</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>263</v>
+      </c>
+      <c r="X35" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>315</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" t="s">
+        <v>326</v>
+      </c>
+      <c r="K38" t="s">
+        <v>327</v>
+      </c>
+      <c r="L38" t="s">
+        <v>328</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>329</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>263</v>
+      </c>
+      <c r="X38" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>332</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s">
+        <v>335</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
